--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1748.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1748.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8050777878187337</v>
+        <v>0.5958322286605835</v>
       </c>
       <c r="B1">
-        <v>1.627450949801979</v>
+        <v>0.6447725892066956</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.121588647921068</v>
+        <v>1.514372110366821</v>
       </c>
       <c r="E1">
-        <v>1.405575653966388</v>
+        <v>0.9047685265541077</v>
       </c>
     </row>
   </sheetData>
